--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522362.1855079017</v>
+        <v>-524957.625380039</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>275.149935615365</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>255.8535495388361</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42.90202158928469</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>143.1282780035992</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>75.07447469245899</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>172.2093932926073</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>261.5224947939239</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>77.27645457432936</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.58940115912138</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>10.6887904886246</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>12.87606160420931</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13.42914296714778</v>
       </c>
       <c r="G10" t="n">
-        <v>96.02901158147523</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182135</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>75.55208621972793</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>205.9024446242582</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717039</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>128.3548363691447</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>127.0078463455649</v>
       </c>
       <c r="D19" t="n">
-        <v>8.616048582069491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>77.12517954596439</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>60.25690685266593</v>
+        <v>51.50556704456729</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>115.4764219077142</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>140.9144183062129</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.428933139112</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085228</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545308</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,19 +3904,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308929</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1026.041751680664</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="C2" t="n">
-        <v>657.0792347402519</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="D2" t="n">
-        <v>657.0792347402519</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6413059131447</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.181083656475</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1026.041751680664</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,34 +4404,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>679.6333998709955</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800312</v>
+        <v>510.6972169430886</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800312</v>
+        <v>510.6972169430886</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1458.029910870424</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1235.05143006516</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>945.9330925689973</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>691.2486043631104</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>401.8314343261497</v>
+        <v>861.2818647012352</v>
       </c>
       <c r="X4" t="n">
-        <v>401.8314343261497</v>
+        <v>861.2818647012352</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8314343261497</v>
+        <v>861.2818647012352</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1465.289389295559</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C5" t="n">
-        <v>1096.326872355147</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D5" t="n">
-        <v>738.0611737483964</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>738.0611737483964</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>327.0752689587889</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>315.4109227234818</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.42872127137</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295559</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="6">
@@ -4635,37 +4635,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476953</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>614.1395525925794</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C7" t="n">
-        <v>445.2033696646726</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
         <v>367.1463448421176</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.34930177307</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>834.9321317361096</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X7" t="n">
-        <v>834.9321317361096</v>
+        <v>867.8476320126</v>
       </c>
       <c r="Y7" t="n">
-        <v>614.1395525925794</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149741</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C8" t="n">
-        <v>905.5765942093292</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>905.5765942093292</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>905.5765942093292</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>494.5906894197216</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>79.51823926471809</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>459.8449442241111</v>
+        <v>810.3754302374108</v>
       </c>
       <c r="C10" t="n">
-        <v>459.8449442241111</v>
+        <v>641.4392473095039</v>
       </c>
       <c r="D10" t="n">
-        <v>309.7283048117754</v>
+        <v>491.3226078971682</v>
       </c>
       <c r="E10" t="n">
-        <v>309.7283048117754</v>
+        <v>491.3226078971682</v>
       </c>
       <c r="F10" t="n">
-        <v>309.7283048117754</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X10" t="n">
-        <v>680.6375233676413</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y10" t="n">
-        <v>459.8449442241111</v>
+        <v>810.3754302374108</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367881</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.2179484367881</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>337.3280009388777</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>170.1319016537577</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>170.1319016537577</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257329</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1625.780207734481</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1336.36303769752</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1108.373486799503</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559726</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2387.388512467612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>551.263652184387</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>403.3505586019938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6658,13 +6658,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6932,28 +6932,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,31 +7184,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>70.03064962107925</v>
+        <v>168.7434581780648</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>90.12295615564256</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>3.349832573502478</v>
       </c>
       <c r="E2" t="n">
-        <v>126.0768205334257</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.713750098837608</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>46.23519869956985</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>125.505489761042</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>123.7828069546833</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.23897475306292</v>
       </c>
       <c r="D19" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>141.4594738061304</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>191.8807364711621</v>
+        <v>200.6320762792607</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>30.95754073885493</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>4.506629716718351</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.75554125013218</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>99.26785128072137</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.406874616804998e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.435296326235402e-12</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758986</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="K2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="K2" t="n">
-        <v>262322.644899252</v>
-      </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69174.5363296345</v>
+        <v>69174.53632963446</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744275</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744264</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="M4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744299</v>
       </c>
       <c r="N4" t="n">
+        <v>16718.11565483774</v>
+      </c>
+      <c r="O4" t="n">
         <v>16718.11565483776</v>
       </c>
-      <c r="O4" t="n">
-        <v>16718.11565483775</v>
-      </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1047804.4485695</v>
+        <v>-1048095.055734346</v>
       </c>
       <c r="C6" t="n">
-        <v>38378.66578906425</v>
+        <v>38378.66578906417</v>
       </c>
       <c r="D6" t="n">
         <v>-121636.7969589347</v>
       </c>
       <c r="E6" t="n">
-        <v>-172939.6031237545</v>
+        <v>-172974.3410491905</v>
       </c>
       <c r="F6" t="n">
-        <v>152472.8586836005</v>
+        <v>152438.1207581648</v>
       </c>
       <c r="G6" t="n">
-        <v>152472.8586836006</v>
+        <v>152438.1207581648</v>
       </c>
       <c r="H6" t="n">
-        <v>152472.8586836006</v>
+        <v>152438.120758165</v>
       </c>
       <c r="I6" t="n">
-        <v>152472.8586836007</v>
+        <v>152438.1207581649</v>
       </c>
       <c r="J6" t="n">
-        <v>-15132.31912638203</v>
+        <v>-15167.05705181789</v>
       </c>
       <c r="K6" t="n">
-        <v>152472.8586836006</v>
+        <v>152438.1207581648</v>
       </c>
       <c r="L6" t="n">
-        <v>104178.8886754098</v>
+        <v>104144.1507499742</v>
       </c>
       <c r="M6" t="n">
-        <v>67417.83074808879</v>
+        <v>67383.09282265298</v>
       </c>
       <c r="N6" t="n">
-        <v>127528.6257035073</v>
+        <v>127528.6257035075</v>
       </c>
       <c r="O6" t="n">
-        <v>146956.3436971391</v>
+        <v>146956.3436971392</v>
       </c>
       <c r="P6" t="n">
-        <v>146956.3436971391</v>
+        <v>146956.343697139</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>351.3332090471805</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>363.9740241524268</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.305684642969993</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>119.5879856692785</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>210.5244483708733</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.49605776848148</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>71.33901844388299</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>198.1202542299158</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>372.045051174856</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>281.7317027831111</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>131.9919050557835</v>
       </c>
       <c r="G10" t="n">
-        <v>69.99679667755299</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28485,46 +28485,46 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>-1.696776052995119e-12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1175412796309</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>218.9428233593773</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>270.3182595810212</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>550.2163373881178</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>631.9617651335556</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35024,19 +35024,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>319.7101787446115</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>81.10138438501833</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066233</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3364854949997</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>416.2419299737876</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
